--- a/IncaArt/Data/Productos.xlsx
+++ b/IncaArt/Data/Productos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Lista de Productos</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>Ceramico</t>
-  </si>
-  <si>
-    <t>UNDS</t>
-  </si>
-  <si>
-    <t>soles</t>
   </si>
   <si>
     <t>CERAMICO</t>
@@ -412,7 +406,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,14 +452,14 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -474,21 +468,21 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -497,21 +491,21 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -520,7 +514,7 @@
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/IncaArt/Data/Productos.xlsx
+++ b/IncaArt/Data/Productos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brajean\Source\Repos\Desarrollo-de-Programas-1\IncaArt\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
@@ -67,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,6 +123,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -165,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +206,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,6 +258,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,7 +454,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,48 +521,48 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
